--- a/indicators/NO_GJEN/metadata.xlsx
+++ b/indicators/NO_GJEN/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv_gjengroing_review\indicators\NO_GJEN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\ecRxiv\indicators\NO_GJEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC1557-BF47-4F3F-AEBB-0E1671AA16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A955DE-7A36-4CE4-B563-28FE783F9C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15375" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="180">
   <si>
     <t>indicatorID</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/NO_GJEN</t>
+  </si>
+  <si>
+    <t>yearAdded</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78FF33B-C37D-487F-A5F6-37AB2202A4CF}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,57 +1165,67 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2024</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{60CC9B44-C6FF-4C53-BFA1-E52375DD3BD7}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{60CC9B44-C6FF-4C53-BFA1-E52375DD3BD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1247,7 +1260,7 @@
           <x14:formula1>
             <xm:f>lookup!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B14</xm:sqref>
+          <xm:sqref>B15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
